--- a/database/AN_pp/expdata/2003.xlsx
+++ b/database/AN_pp/expdata/2003.xlsx
@@ -14,27 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>xF</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>stat_err_u</t>
+  </si>
+  <si>
+    <t>sys_err_u</t>
+  </si>
+  <si>
+    <t>pT</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>hadron</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>pi0</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
     <t>AN</t>
-  </si>
-  <si>
-    <t>stat_err</t>
-  </si>
-  <si>
-    <t>sys_err</t>
-  </si>
-  <si>
-    <t>pT</t>
-  </si>
-  <si>
-    <t>hadron</t>
-  </si>
-  <si>
-    <t>pi0</t>
   </si>
 </sst>
 </file>
@@ -392,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +438,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0.237</v>
       </c>
@@ -434,11 +467,23 @@
       <c r="E2">
         <v>1.19</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0.283</v>
       </c>
@@ -454,11 +499,23 @@
       <c r="E3">
         <v>1.34</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0.322</v>
       </c>
@@ -474,11 +531,23 @@
       <c r="E4">
         <v>1.53</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0.371</v>
       </c>
@@ -494,11 +563,23 @@
       <c r="E5">
         <v>1.79</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0.427</v>
       </c>
@@ -514,11 +595,23 @@
       <c r="E6">
         <v>2.04</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0.501</v>
       </c>
@@ -534,11 +627,23 @@
       <c r="E7">
         <v>2.36</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0.598</v>
       </c>
@@ -554,11 +659,23 @@
       <c r="E8">
         <v>2.78</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>-0.237</v>
       </c>
@@ -574,11 +691,23 @@
       <c r="E9">
         <v>1.19</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>-0.283</v>
       </c>
@@ -594,11 +723,23 @@
       <c r="E10">
         <v>1.34</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>-0.322</v>
       </c>
@@ -614,11 +755,23 @@
       <c r="E11">
         <v>1.53</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>-0.371</v>
       </c>
@@ -634,11 +787,23 @@
       <c r="E12">
         <v>1.79</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>-0.427</v>
       </c>
@@ -654,11 +819,23 @@
       <c r="E13">
         <v>2.04</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>-0.501</v>
       </c>
@@ -674,11 +851,23 @@
       <c r="E14">
         <v>2.36</v>
       </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>-0.598</v>
       </c>
@@ -694,8 +883,20 @@
       <c r="E15">
         <v>2.78</v>
       </c>
-      <c r="F15" t="s">
-        <v>6</v>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
